--- a/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
@@ -18,7 +18,7 @@
     <sheet name="チェックシート(HitachiVSP)" sheetId="6" r:id="rId4"/>
     <sheet name="テンプレート(HitachiVSP)" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>server_name</t>
   </si>
@@ -321,7 +321,29 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>IP</t>
+    <t>networks</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ネットワーク情報</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>サブネット構成</t>
+    <rPh sb="5" eb="7">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>networks</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>net_subnet</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -329,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -435,8 +457,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +487,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -557,7 +591,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -622,6 +656,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1282,25 +1319,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH15"/>
+  <dimension ref="A1:AMI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="12" customWidth="1"/>
     <col min="2" max="6" width="13.375" style="12" customWidth="1"/>
-    <col min="7" max="8" width="31.875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="28.125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="12" customWidth="1"/>
-    <col min="12" max="1022" width="9" style="12" customWidth="1"/>
-    <col min="1023" max="16384" width="9" style="7"/>
+    <col min="7" max="9" width="31.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="13.375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="28.125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="12" customWidth="1"/>
+    <col min="13" max="1023" width="9" style="12" customWidth="1"/>
+    <col min="1024" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1312,8 +1349,9 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1325,8 +1363,9 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>51</v>
       </c>
@@ -1351,17 +1390,20 @@
       <c r="H3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
@@ -1378,17 +1420,18 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>59</v>
       </c>
@@ -1405,15 +1448,18 @@
         <v>25</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="J5" s="14"/>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14"/>
+      <c r="L5" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1424,9 +1470,10 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1437,9 +1484,10 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1450,9 +1498,10 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1464,8 +1513,9 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1477,8 +1527,9 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -1490,8 +1541,9 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -1503,8 +1555,9 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -1516,8 +1569,9 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
@@ -1529,8 +1583,9 @@
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -1542,6 +1597,7 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -1636,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1759,23 +1815,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1783,10 +1835,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>9</v>
@@ -1794,8 +1846,8 @@
       <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1803,10 +1855,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
@@ -1814,8 +1866,8 @@
       <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1823,10 +1875,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
@@ -1835,7 +1887,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -1843,10 +1895,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
@@ -1855,6 +1907,26 @@
         <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>28</v>
       </c>
     </row>

--- a/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
@@ -834,7 +834,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -875,6 +875,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1134,7 +1140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,49 +1207,64 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="11" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="11" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="11" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="11" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="11" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1576,11 +1597,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N87" sqref="A1:N87"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1590,1095 +1609,1675 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4"/>
-      <c r="B4" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5"/>
-      <c r="B5" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9"/>
-      <c r="B9" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11"/>
-      <c r="B11" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13"/>
-      <c r="C13" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15"/>
-      <c r="C15" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17"/>
-      <c r="C17" s="23" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19"/>
-      <c r="C19" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20"/>
-      <c r="C20" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21"/>
-      <c r="C21" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25"/>
-      <c r="B25" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26"/>
-      <c r="B26" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28" t="s">
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="37" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29" t="s">
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="37" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30" t="s">
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="37" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31" t="s">
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32" t="s">
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="37" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33" t="s">
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34" t="s">
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="37" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35" t="s">
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="37" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36" t="s">
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="37" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38"/>
-      <c r="B38" t="s">
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C38"/>
-      <c r="D38"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="11"/>
-      <c r="C40" s="22" t="s">
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-    </row>
-    <row r="41" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="11"/>
-      <c r="C41" s="11" t="s">
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="F41" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="11" t="s">
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="10">
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A43" s="38"/>
+      <c r="B43" s="41">
         <v>1</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B44" s="10">
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="38"/>
+      <c r="B44" s="41">
         <v>2</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B45" s="10">
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="38"/>
+      <c r="B45" s="41">
         <v>3</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="10">
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A46" s="38"/>
+      <c r="B46" s="41">
         <v>4</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B47" s="10">
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A47" s="38"/>
+      <c r="B47" s="41">
         <v>5</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B48" s="10">
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A48" s="38"/>
+      <c r="B48" s="41">
         <v>6</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B49" s="10">
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
+    </row>
+    <row r="49" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A49" s="38"/>
+      <c r="B49" s="41">
         <v>7</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B50" s="10">
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
+    </row>
+    <row r="50" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A50" s="38"/>
+      <c r="B50" s="41">
         <v>8</v>
       </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B51" s="10">
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
+    </row>
+    <row r="51" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A51" s="38"/>
+      <c r="B51" s="41">
         <v>9</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B52" s="10">
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
+    </row>
+    <row r="52" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A52" s="38"/>
+      <c r="B52" s="41">
         <v>10</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A54" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56"/>
-      <c r="B56" t="s">
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="38"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="38"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58" s="23" t="s">
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="38"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="38"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="27"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60"/>
-      <c r="B60" t="s">
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="38"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="38"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62" s="28" t="s">
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="38"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="38"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="30"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="33"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64" s="31" t="s">
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="38"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="38"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="33"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65" s="31" t="s">
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="38"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="33"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66" s="34" t="s">
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="38"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="36"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="38"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="38"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-      <c r="M69"/>
-      <c r="N69"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A70"/>
-      <c r="B70" t="s">
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="38"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="38"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72" s="23" t="s">
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="38"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="38"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="27"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="38"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="38"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A76"/>
-      <c r="B76" t="s">
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="38"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="38"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="37"/>
+      <c r="B76" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78" s="23" t="s">
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="38"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="38"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="27"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A80"/>
-      <c r="B80" t="s">
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="38"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="38"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="37"/>
+      <c r="B80" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A81"/>
-      <c r="B81" t="s">
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="38"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="37"/>
+      <c r="B81" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A82"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A83"/>
-      <c r="B83"/>
-      <c r="C83" s="23" t="s">
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="38"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="38"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="27"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A84"/>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84"/>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A85"/>
-      <c r="B85" t="s">
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="38"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="38"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A85" s="37"/>
+      <c r="B85" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A87"/>
-      <c r="B87"/>
-      <c r="C87" s="23" t="s">
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="38"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="38"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="27"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="38"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
+      <c r="M88" s="38"/>
+      <c r="N88" s="38"/>
+      <c r="O88" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2712,16 +3311,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>

--- a/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="740"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
   <si>
     <t>共通設定</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>net_subnet</t>
-  </si>
-  <si>
-    <t>HitachiVSP</t>
   </si>
   <si>
     <t>検査対象</t>
@@ -764,6 +761,21 @@
     <rPh sb="60" eb="62">
       <t>ヒカク</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t>カタバン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>_redmine:ストレージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>S/N</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1249,9 +1261,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1261,10 +1270,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1599,7 +1611,7 @@
   </sheetPr>
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1610,298 +1622,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="22" t="s">
         <v>109</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="22" t="s">
-        <v>110</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -1911,438 +1923,438 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="37" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="37" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="37" t="s">
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37" t="s">
+      <c r="D29" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37" t="s">
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D31" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37" t="s">
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D35" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37" t="s">
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="37" t="s">
+      <c r="D36" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37" t="s">
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
     </row>
     <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="40" t="s">
         <v>0</v>
       </c>
@@ -2353,376 +2365,376 @@
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
     </row>
     <row r="41" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="39" t="s">
+      <c r="G41" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
     </row>
     <row r="42" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="39" t="s">
+      <c r="G42" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="39" t="s">
+      <c r="J42" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
     </row>
     <row r="43" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="38"/>
-      <c r="B43" s="41">
+      <c r="A43" s="37"/>
+      <c r="B43" s="39">
         <v>1</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="41" t="s">
+      <c r="F43" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
     </row>
     <row r="44" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="38"/>
-      <c r="B44" s="41">
+      <c r="A44" s="37"/>
+      <c r="B44" s="39">
         <v>2</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
     </row>
     <row r="45" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="38"/>
-      <c r="B45" s="41">
+      <c r="A45" s="37"/>
+      <c r="B45" s="39">
         <v>3</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
     </row>
     <row r="46" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="38"/>
-      <c r="B46" s="41">
+      <c r="A46" s="37"/>
+      <c r="B46" s="39">
         <v>4</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
     </row>
     <row r="47" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="38"/>
-      <c r="B47" s="41">
+      <c r="A47" s="37"/>
+      <c r="B47" s="39">
         <v>5</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
     </row>
     <row r="48" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="38"/>
-      <c r="B48" s="41">
+      <c r="A48" s="37"/>
+      <c r="B48" s="39">
         <v>6</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
     </row>
     <row r="49" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="38"/>
-      <c r="B49" s="41">
+      <c r="A49" s="37"/>
+      <c r="B49" s="39">
         <v>7</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
     </row>
     <row r="50" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="38"/>
-      <c r="B50" s="41">
+      <c r="A50" s="37"/>
+      <c r="B50" s="39">
         <v>8</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
     </row>
     <row r="51" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="38"/>
-      <c r="B51" s="41">
+      <c r="A51" s="37"/>
+      <c r="B51" s="39">
         <v>9</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
     </row>
     <row r="52" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="38"/>
-      <c r="B52" s="41">
+      <c r="A52" s="37"/>
+      <c r="B52" s="39">
         <v>10</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="36"/>
+      <c r="O54" s="37"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
+      <c r="N55" s="36"/>
+      <c r="O55" s="37"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A56" s="36"/>
+      <c r="B56" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="38"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="38"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-      <c r="O56" s="38"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="36"/>
+      <c r="O56" s="37"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A57" s="37"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="37"/>
-      <c r="O57" s="38"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="37"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
@@ -2735,66 +2747,66 @@
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
       <c r="N58" s="26"/>
-      <c r="O58" s="38"/>
+      <c r="O58" s="37"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="38"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="37"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="38"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="37"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="38"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="37"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -2807,11 +2819,11 @@
       <c r="L62" s="28"/>
       <c r="M62" s="28"/>
       <c r="N62" s="29"/>
-      <c r="O62" s="38"/>
+      <c r="O62" s="37"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A63" s="37"/>
-      <c r="B63" s="37"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="30"/>
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
@@ -2824,13 +2836,13 @@
       <c r="L63" s="31"/>
       <c r="M63" s="31"/>
       <c r="N63" s="32"/>
-      <c r="O63" s="38"/>
+      <c r="O63" s="37"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A64" s="37"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
@@ -2843,13 +2855,13 @@
       <c r="L64" s="31"/>
       <c r="M64" s="31"/>
       <c r="N64" s="32"/>
-      <c r="O64" s="38"/>
+      <c r="O64" s="37"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A65" s="37"/>
-      <c r="B65" s="37"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
@@ -2862,13 +2874,13 @@
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
       <c r="N65" s="32"/>
-      <c r="O65" s="38"/>
+      <c r="O65" s="37"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A66" s="37"/>
-      <c r="B66" s="37"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="34"/>
@@ -2881,102 +2893,102 @@
       <c r="L66" s="34"/>
       <c r="M66" s="34"/>
       <c r="N66" s="35"/>
-      <c r="O66" s="38"/>
+      <c r="O66" s="37"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A67" s="37"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="38"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="37"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="37"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="36"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="36"/>
+      <c r="N69" s="36"/>
+      <c r="O69" s="37"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="36"/>
+      <c r="B70" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="38"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="38"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="38"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="36"/>
+      <c r="N70" s="36"/>
+      <c r="O70" s="37"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="38"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="37"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
@@ -2989,102 +3001,102 @@
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
       <c r="N72" s="26"/>
-      <c r="O72" s="38"/>
+      <c r="O72" s="37"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="38"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="36"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
+      <c r="O73" s="37"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="37"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="36"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="36"/>
+      <c r="O75" s="37"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="36"/>
+      <c r="B76" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="38"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="37"/>
-      <c r="O75" s="38"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37" t="s">
+      <c r="C76" s="36"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="37"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="37"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="22" t="s">
         <v>122</v>
-      </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="37"/>
-      <c r="O76" s="38"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="37"/>
-      <c r="O77" s="38"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="22" t="s">
-        <v>123</v>
       </c>
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
@@ -3097,85 +3109,85 @@
       <c r="L78" s="23"/>
       <c r="M78" s="23"/>
       <c r="N78" s="26"/>
-      <c r="O78" s="38"/>
+      <c r="O78" s="37"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A79" s="37"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="37"/>
-      <c r="O79" s="38"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="37"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A80" s="37"/>
-      <c r="B80" s="37" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="36"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="36"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="36"/>
+      <c r="N80" s="36"/>
+      <c r="O80" s="37"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="36"/>
+      <c r="B81" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="37"/>
-      <c r="O80" s="38"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37" t="s">
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="37"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="36"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="36"/>
+      <c r="N82" s="36"/>
+      <c r="O82" s="37"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="37"/>
-      <c r="O81" s="38"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="37"/>
-      <c r="O82" s="38"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
@@ -3188,66 +3200,66 @@
       <c r="L83" s="23"/>
       <c r="M83" s="23"/>
       <c r="N83" s="26"/>
-      <c r="O83" s="38"/>
+      <c r="O83" s="37"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-      <c r="L84" s="37"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="37"/>
-      <c r="O84" s="38"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="36"/>
+      <c r="O84" s="37"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37" t="s">
+      <c r="A85" s="36"/>
+      <c r="B85" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="36"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="36"/>
+      <c r="N85" s="36"/>
+      <c r="O85" s="37"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="36"/>
+      <c r="N86" s="36"/>
+      <c r="O86" s="37"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="37"/>
-      <c r="O85" s="38"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86" s="37"/>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="37"/>
-      <c r="O86" s="38"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
@@ -3260,24 +3272,24 @@
       <c r="L87" s="23"/>
       <c r="M87" s="23"/>
       <c r="N87" s="26"/>
-      <c r="O87" s="38"/>
+      <c r="O87" s="37"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3311,16 +3323,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="11"/>
@@ -3676,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3795,39 +3807,47 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="16" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>44</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="15" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
+      <c r="E6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="L6" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
@@ -3991,16 +4011,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="19"/>
       <c r="B1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4008,16 +4028,16 @@
         <v>23</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4112,36 +4132,36 @@
         <v>22</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>C5</f>
@@ -4150,158 +4170,158 @@
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -4344,16 +4364,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4361,13 +4381,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4375,13 +4395,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4392,7 +4412,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4403,7 +4423,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="740" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="144">
   <si>
     <t>共通設定</t>
   </si>
@@ -776,6 +776,29 @@
   </si>
   <si>
     <t>S/N</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*)</t>
+    </r>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>選択プラットフォーム</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1152,7 +1175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,6 +1300,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,9 +1635,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3291,6 +3319,19 @@
       <c r="N88" s="37"/>
       <c r="O88" s="37"/>
     </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B90" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90" s="42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C40:J40"/>
@@ -3309,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3674,6 +3715,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>利用手順!$C$91:$C$92</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B23</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
     <ext uri="smNativeData">
       <pm:sheetPrefs xmlns:pm="smNativeData" day="1536180249" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
@@ -3688,7 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="740" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="153">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -328,21 +328,9 @@
     <t>_redmine:ストレージ</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Serial</t>
-  </si>
-  <si>
     <t>PdevInfo</t>
   </si>
   <si>
-    <t>networks</t>
-  </si>
-  <si>
-    <t>net_subnet</t>
-  </si>
-  <si>
     <t>検査対象</t>
   </si>
   <si>
@@ -407,9 +395,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>networks</t>
   </si>
   <si>
     <t>ネットワーク情報</t>
@@ -473,15 +458,61 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>ハードウェア</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>ネットワーク</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>ディスク</t>
+    <t>キャッシュ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>システム情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.Type</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.Serial</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.networks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.net_subnet</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>論理ボリューム</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.networks</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>サブネット</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>DkcInfo.net_subnet</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ドライブ</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -902,12 +933,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="12" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +940,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2009,16 +2040,16 @@
     <row r="40" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="27"/>
       <c r="B40" s="28"/>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
       <c r="K40" s="27"/>
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
@@ -2876,9 +2907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2890,16 +2919,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -2976,9 +3005,7 @@
       <c r="F4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
@@ -3265,8 +3292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3406,19 +3433,19 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>99</v>
-      </c>
       <c r="H6" s="15" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -3588,16 +3615,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="18"/>
       <c r="B1" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -3605,16 +3632,16 @@
         <v>77</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3662,19 +3689,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B9:B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -3682,7 +3708,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
-      <c r="B1" s="36"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -3691,7 +3717,7 @@
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
-      <c r="B2" s="36"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3700,7 +3726,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="B3" s="36"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3711,233 +3737,252 @@
       <c r="A4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>144</v>
+      <c r="B4" s="32" t="s">
+        <v>139</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="4" t="str">
-        <f>C5</f>
-        <v>ストレージキャッシュ</v>
+        <v>119</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>145</v>
+        <v>109</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f>C7</f>
+        <v>ストレージキャッシュ</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="35" t="s">
-        <v>146</v>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>147</v>
+      <c r="A9" s="5"/>
+      <c r="B9" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>118</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>147</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>147</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>147</v>
+        <v>114</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>152</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>147</v>
+        <v>114</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>152</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.052778" bottom="1.052778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" fitToWidth="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
@@ -3974,16 +4019,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3991,13 +4036,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4005,13 +4050,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4022,7 +4067,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4033,7 +4078,7 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
@@ -3699,9 +3699,9 @@
     <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -3747,13 +3747,13 @@
         <v>104</v>
       </c>
       <c r="E4" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3770,13 +3770,13 @@
         <v>117</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3793,13 +3793,13 @@
         <v>115</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3816,14 +3816,14 @@
         <v>110</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="4" t="str">
+      <c r="F7" s="4" t="str">
         <f>C7</f>
         <v>ストレージキャッシュ</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3837,12 +3837,12 @@
       <c r="D8" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3856,12 +3856,12 @@
       <c r="D9" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3878,13 +3878,13 @@
         <v>121</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3901,13 +3901,13 @@
         <v>123</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3924,13 +3924,13 @@
         <v>125</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3947,13 +3947,13 @@
         <v>97</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3970,13 +3970,13 @@
         <v>128</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
+++ b/template/Hitachi_VSP/HitachiVSPチェックシート.xlsx
@@ -427,9 +427,6 @@
     <t>SSDドライブ情報</t>
   </si>
   <si>
-    <t>Eternus</t>
-  </si>
-  <si>
     <t>enclosure_status</t>
   </si>
   <si>
@@ -513,6 +510,22 @@
   </si>
   <si>
     <t>ドライブ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>itachiVSP</t>
+    </r>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -836,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +959,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2913,8 +2929,7 @@
   <cols>
     <col min="1" max="1" width="3.125" style="2" customWidth="1"/>
     <col min="2" max="9" width="16.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
@@ -3290,11 +3305,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3304,9 +3317,7 @@
     <col min="10" max="10" width="13.375" style="11" customWidth="1"/>
     <col min="11" max="11" width="28.125" style="11" customWidth="1"/>
     <col min="12" max="12" width="13.375" style="11" customWidth="1"/>
-    <col min="13" max="1023" width="9" style="11" customWidth="1"/>
-    <col min="1024" max="1024" width="9" style="2" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -3433,19 +3444,19 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>97</v>
       </c>
       <c r="H6" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>146</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -3596,10 +3607,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3607,9 +3618,7 @@
     <col min="1" max="1" width="3.375" style="11" customWidth="1"/>
     <col min="2" max="4" width="17.875" style="11" customWidth="1"/>
     <col min="5" max="5" width="71.625" style="11" customWidth="1"/>
-    <col min="6" max="1025" width="9" style="11" customWidth="1"/>
-    <col min="1026" max="1026" width="9" style="2" customWidth="1"/>
-    <col min="1027" max="16384" width="9" style="2"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -3702,8 +3711,7 @@
     <col min="5" max="5" width="8.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="34.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
@@ -3738,7 +3746,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>106</v>
@@ -3761,7 +3769,7 @@
         <v>114</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>118</v>
@@ -3784,7 +3792,7 @@
         <v>114</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>116</v>
@@ -3807,7 +3815,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>111</v>
@@ -3829,17 +3837,17 @@
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="33"/>
       <c r="B8" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>150</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>54</v>
@@ -3848,17 +3856,17 @@
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>120</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>112</v>
@@ -3869,7 +3877,7 @@
         <v>114</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>122</v>
@@ -3892,7 +3900,7 @@
         <v>114</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>124</v>
@@ -3915,7 +3923,7 @@
         <v>114</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>126</v>
@@ -3938,7 +3946,7 @@
         <v>114</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>127</v>
@@ -3961,7 +3969,7 @@
         <v>114</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>129</v>
@@ -4002,9 +4010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4012,23 +4018,21 @@
     <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
-    <col min="5" max="1007" width="8.75" style="2" customWidth="1"/>
-    <col min="1008" max="1008" width="9" style="2" customWidth="1"/>
-    <col min="1009" max="16384" width="9" style="2"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>130</v>
+      <c r="B1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4036,13 +4040,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4050,13 +4054,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4067,7 +4071,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
       <c r="D4" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4078,7 +4082,7 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
